--- a/data/pca/factorExposure/factorExposure_2009-10-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01017261565617114</v>
+        <v>0.01688459726734437</v>
       </c>
       <c r="C2">
-        <v>-0.001481600345034408</v>
+        <v>0.0009461864517629761</v>
       </c>
       <c r="D2">
-        <v>-0.007379273029662003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008772317247895347</v>
+      </c>
+      <c r="E2">
+        <v>-0.001825559076075985</v>
+      </c>
+      <c r="F2">
+        <v>-0.01260041790529597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1110239106291028</v>
+        <v>0.09355983963718967</v>
       </c>
       <c r="C4">
-        <v>-0.005332937053887698</v>
+        <v>0.01458267099943344</v>
       </c>
       <c r="D4">
-        <v>-0.05474550999465827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08452021056243145</v>
+      </c>
+      <c r="E4">
+        <v>-0.02978722384853351</v>
+      </c>
+      <c r="F4">
+        <v>0.03136516545083403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1421062848900928</v>
+        <v>0.1586789651654923</v>
       </c>
       <c r="C6">
-        <v>-0.009818558480867153</v>
+        <v>0.02611973234837619</v>
       </c>
       <c r="D6">
-        <v>0.02766407936980935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02271414342745637</v>
+      </c>
+      <c r="E6">
+        <v>-0.01002307090864521</v>
+      </c>
+      <c r="F6">
+        <v>0.04508496936846185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07405107402719943</v>
+        <v>0.06334691292157214</v>
       </c>
       <c r="C7">
-        <v>0.007969701879242775</v>
+        <v>-0.001825564020717483</v>
       </c>
       <c r="D7">
-        <v>-0.03478830347790209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05282370723621254</v>
+      </c>
+      <c r="E7">
+        <v>-0.01108305413956868</v>
+      </c>
+      <c r="F7">
+        <v>0.04642481689555511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06476240305526461</v>
+        <v>0.05722409705273853</v>
       </c>
       <c r="C8">
-        <v>0.01800165839757139</v>
+        <v>-0.01351589714649742</v>
       </c>
       <c r="D8">
-        <v>-0.003436566883368387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03316410622033017</v>
+      </c>
+      <c r="E8">
+        <v>-0.01800546051055187</v>
+      </c>
+      <c r="F8">
+        <v>-0.02739660485157595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08926914999353604</v>
+        <v>0.07087366557038224</v>
       </c>
       <c r="C9">
-        <v>-0.005117579779658943</v>
+        <v>0.0102185871531934</v>
       </c>
       <c r="D9">
-        <v>-0.05389163017457133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08687290501893666</v>
+      </c>
+      <c r="E9">
+        <v>-0.02338564731500925</v>
+      </c>
+      <c r="F9">
+        <v>0.04741209424852089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06877858444206147</v>
+        <v>0.0929233071418492</v>
       </c>
       <c r="C10">
-        <v>-0.003063019740542761</v>
+        <v>0.02118550706274534</v>
       </c>
       <c r="D10">
-        <v>0.1498716405433552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1667619033861383</v>
+      </c>
+      <c r="E10">
+        <v>0.03409419234867524</v>
+      </c>
+      <c r="F10">
+        <v>-0.05453981814613466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09611437550514774</v>
+        <v>0.08792144965821339</v>
       </c>
       <c r="C11">
-        <v>-0.004796348681167599</v>
+        <v>0.01024632698167187</v>
       </c>
       <c r="D11">
-        <v>-0.08618572746422938</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1169153862491216</v>
+      </c>
+      <c r="E11">
+        <v>-0.04623914759610801</v>
+      </c>
+      <c r="F11">
+        <v>0.02223433850192184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1050163080361863</v>
+        <v>0.09198315369939496</v>
       </c>
       <c r="C12">
-        <v>-0.002510937415826177</v>
+        <v>0.007621136615708151</v>
       </c>
       <c r="D12">
-        <v>-0.08529096470884237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1318896643228974</v>
+      </c>
+      <c r="E12">
+        <v>-0.04708801194681751</v>
+      </c>
+      <c r="F12">
+        <v>0.02792960660639424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04455036701242932</v>
+        <v>0.04190931231507981</v>
       </c>
       <c r="C13">
-        <v>-0.0007501380645093071</v>
+        <v>0.002581340641873722</v>
       </c>
       <c r="D13">
-        <v>-0.03428917826708472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05376209289598086</v>
+      </c>
+      <c r="E13">
+        <v>0.004695167035128791</v>
+      </c>
+      <c r="F13">
+        <v>0.0004281448066656881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02311800222283821</v>
+        <v>0.02395872866782991</v>
       </c>
       <c r="C14">
-        <v>-0.01183711796392616</v>
+        <v>0.01381737437996183</v>
       </c>
       <c r="D14">
-        <v>-0.02325157791219341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03280945150927875</v>
+      </c>
+      <c r="E14">
+        <v>-0.01930251044303683</v>
+      </c>
+      <c r="F14">
+        <v>0.01214685975530179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04146864727031734</v>
+        <v>0.03269989683179246</v>
       </c>
       <c r="C15">
-        <v>-0.002295365711699142</v>
+        <v>0.004613919491709644</v>
       </c>
       <c r="D15">
-        <v>-0.01612694050449997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04463643708478873</v>
+      </c>
+      <c r="E15">
+        <v>-0.005563836399303936</v>
+      </c>
+      <c r="F15">
+        <v>0.02391351740398915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08440158489502302</v>
+        <v>0.07427241616656878</v>
       </c>
       <c r="C16">
-        <v>0.002930889603913538</v>
+        <v>0.0008882865828345984</v>
       </c>
       <c r="D16">
-        <v>-0.08150515604837247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1274169022776471</v>
+      </c>
+      <c r="E16">
+        <v>-0.06117582869921646</v>
+      </c>
+      <c r="F16">
+        <v>0.02641716613212395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0005489076146153086</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001589537382730957</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0008616109140775453</v>
+      </c>
+      <c r="E17">
+        <v>-0.0004409088551779419</v>
+      </c>
+      <c r="F17">
+        <v>-0.0003868062998843897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.000685517288089709</v>
+        <v>0.03499422852866602</v>
       </c>
       <c r="C18">
-        <v>0.0001000751840283773</v>
+        <v>-0.003107223290634685</v>
       </c>
       <c r="D18">
-        <v>0.002477951777030602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01640801048356747</v>
+      </c>
+      <c r="E18">
+        <v>0.006126624694989403</v>
+      </c>
+      <c r="F18">
+        <v>-0.008627539187491724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06568593802688648</v>
+        <v>0.06152746019387676</v>
       </c>
       <c r="C20">
-        <v>0.0009923452161552182</v>
+        <v>-0.0001685325590779203</v>
       </c>
       <c r="D20">
-        <v>-0.02874555252063934</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07747138028834184</v>
+      </c>
+      <c r="E20">
+        <v>-0.05582002468115483</v>
+      </c>
+      <c r="F20">
+        <v>0.02411659353567376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04282670083760335</v>
+        <v>0.04073274749919158</v>
       </c>
       <c r="C21">
-        <v>-0.005536720069498196</v>
+        <v>0.006436648324626916</v>
       </c>
       <c r="D21">
-        <v>-0.008094932365399416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.037418203132871</v>
+      </c>
+      <c r="E21">
+        <v>0.00290426140350366</v>
+      </c>
+      <c r="F21">
+        <v>-0.02613757397648705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02364340193360216</v>
+        <v>0.04279795008758197</v>
       </c>
       <c r="C22">
-        <v>0.0002973285440778252</v>
+        <v>0.0003788100752278791</v>
       </c>
       <c r="D22">
-        <v>0.02213032038613968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006845905093246962</v>
+      </c>
+      <c r="E22">
+        <v>-0.03537329027503515</v>
+      </c>
+      <c r="F22">
+        <v>-0.04131121666413782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02358719130177667</v>
+        <v>0.04277384138831004</v>
       </c>
       <c r="C23">
-        <v>0.0002981478607714381</v>
+        <v>0.0003704378171354244</v>
       </c>
       <c r="D23">
-        <v>0.02212731345292276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006861569728462446</v>
+      </c>
+      <c r="E23">
+        <v>-0.03555691718720035</v>
+      </c>
+      <c r="F23">
+        <v>-0.04127398071326096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09101873904170309</v>
+        <v>0.07994693690727669</v>
       </c>
       <c r="C24">
-        <v>0.003566578626146786</v>
+        <v>0.001515395379185509</v>
       </c>
       <c r="D24">
-        <v>-0.09320624124769382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1215979269692639</v>
+      </c>
+      <c r="E24">
+        <v>-0.04924215545490971</v>
+      </c>
+      <c r="F24">
+        <v>0.02705781596140162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09566539902697471</v>
+        <v>0.08517734449596495</v>
       </c>
       <c r="C25">
-        <v>0.0007973918307551232</v>
+        <v>0.00424010470679802</v>
       </c>
       <c r="D25">
-        <v>-0.08802977511812003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1093050282343787</v>
+      </c>
+      <c r="E25">
+        <v>-0.03276727998032331</v>
+      </c>
+      <c r="F25">
+        <v>0.02659002605111021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05808329320276513</v>
+        <v>0.05831470849259401</v>
       </c>
       <c r="C26">
-        <v>-0.01154463467832042</v>
+        <v>0.01417582411573075</v>
       </c>
       <c r="D26">
-        <v>-0.004554925944761897</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0407423345802213</v>
+      </c>
+      <c r="E26">
+        <v>-0.0276770910299911</v>
+      </c>
+      <c r="F26">
+        <v>-0.006247191291493798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.112312558556655</v>
+        <v>0.1421051125048678</v>
       </c>
       <c r="C28">
-        <v>0.005924083999832217</v>
+        <v>0.02207096130873504</v>
       </c>
       <c r="D28">
-        <v>0.255675537022661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2616952800248584</v>
+      </c>
+      <c r="E28">
+        <v>0.06754642650648442</v>
+      </c>
+      <c r="F28">
+        <v>0.008402055830514168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02435638832130887</v>
+        <v>0.02840348252208074</v>
       </c>
       <c r="C29">
-        <v>-0.006989670390059989</v>
+        <v>0.008652320014064262</v>
       </c>
       <c r="D29">
-        <v>-0.01645419007627735</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03093355552646208</v>
+      </c>
+      <c r="E29">
+        <v>-0.01375785520996437</v>
+      </c>
+      <c r="F29">
+        <v>-0.013920348837168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09601437544665914</v>
+        <v>0.05963817769749199</v>
       </c>
       <c r="C30">
-        <v>0.005376799867086891</v>
+        <v>0.002548953749942307</v>
       </c>
       <c r="D30">
-        <v>-0.06339383739078901</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08997808176349149</v>
+      </c>
+      <c r="E30">
+        <v>-0.01622891713443069</v>
+      </c>
+      <c r="F30">
+        <v>0.07958152383470701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03782115417073143</v>
+        <v>0.05063791464454701</v>
       </c>
       <c r="C31">
-        <v>-0.01279484630596339</v>
+        <v>0.0153023461869023</v>
       </c>
       <c r="D31">
-        <v>-0.014443683184602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02474847079295268</v>
+      </c>
+      <c r="E31">
+        <v>-0.02767125519212073</v>
+      </c>
+      <c r="F31">
+        <v>-0.002221211799259086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04947359016599089</v>
+        <v>0.0514062231045995</v>
       </c>
       <c r="C32">
-        <v>0.00487606355366586</v>
+        <v>-0.001836954378107895</v>
       </c>
       <c r="D32">
-        <v>-0.01482918687647738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03515291839793439</v>
+      </c>
+      <c r="E32">
+        <v>-0.03328610392276461</v>
+      </c>
+      <c r="F32">
+        <v>0.003444242496334886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09975026334889731</v>
+        <v>0.08922803093408735</v>
       </c>
       <c r="C33">
-        <v>-0.0006283870248276372</v>
+        <v>0.006695954006709044</v>
       </c>
       <c r="D33">
-        <v>-0.06093069988027336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1008856043743568</v>
+      </c>
+      <c r="E33">
+        <v>-0.04444620070152</v>
+      </c>
+      <c r="F33">
+        <v>0.03630262171508046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08386493436347535</v>
+        <v>0.06774026858010583</v>
       </c>
       <c r="C34">
-        <v>-0.004437462529711781</v>
+        <v>0.009939358660155608</v>
       </c>
       <c r="D34">
-        <v>-0.08171044735151843</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1090898157581742</v>
+      </c>
+      <c r="E34">
+        <v>-0.03458805591104972</v>
+      </c>
+      <c r="F34">
+        <v>0.03328010664246429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02442357495424642</v>
+        <v>0.02452893368333891</v>
       </c>
       <c r="C35">
-        <v>0.0005989315283791312</v>
+        <v>0.002437887707002801</v>
       </c>
       <c r="D35">
-        <v>-0.001221066128923397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01106875881205078</v>
+      </c>
+      <c r="E35">
+        <v>-0.01193000413574211</v>
+      </c>
+      <c r="F35">
+        <v>0.0002050019833593987</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01518941640772581</v>
+        <v>0.02762416511838603</v>
       </c>
       <c r="C36">
-        <v>-0.008351435753507754</v>
+        <v>0.006792434828103288</v>
       </c>
       <c r="D36">
-        <v>-0.02792724673886495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0396841278397406</v>
+      </c>
+      <c r="E36">
+        <v>-0.01644628031690783</v>
+      </c>
+      <c r="F36">
+        <v>0.01547884436094478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001154722376812552</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.00061970872829703</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002270622256125275</v>
+      </c>
+      <c r="E37">
+        <v>0.0006422086801385168</v>
+      </c>
+      <c r="F37">
+        <v>0.000463447516140638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0001820030144743141</v>
+        <v>7.387073145526373e-05</v>
       </c>
       <c r="C38">
-        <v>-4.184093208373564e-05</v>
+        <v>-5.084645274471009e-05</v>
       </c>
       <c r="D38">
-        <v>-0.001252016975216691</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0005701508463078622</v>
+      </c>
+      <c r="E38">
+        <v>0.0003425949349049278</v>
+      </c>
+      <c r="F38">
+        <v>0.0002031507300994441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.130696796822351</v>
+        <v>0.104802440013043</v>
       </c>
       <c r="C39">
-        <v>-0.00661263288250759</v>
+        <v>0.015424633980832</v>
       </c>
       <c r="D39">
-        <v>-0.1268043206741377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1547382460063716</v>
+      </c>
+      <c r="E39">
+        <v>-0.05903661654921535</v>
+      </c>
+      <c r="F39">
+        <v>0.02998134907703152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02904981998790564</v>
+        <v>0.04151036027133534</v>
       </c>
       <c r="C40">
-        <v>-0.006550052037948965</v>
+        <v>0.006920030547063668</v>
       </c>
       <c r="D40">
-        <v>0.01677272314273733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03073257915724164</v>
+      </c>
+      <c r="E40">
+        <v>-0.002150285301718141</v>
+      </c>
+      <c r="F40">
+        <v>-0.01679087605184316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02158961392704455</v>
+        <v>0.02806787552872042</v>
       </c>
       <c r="C41">
-        <v>-0.005225604638804327</v>
+        <v>0.006928728169844409</v>
       </c>
       <c r="D41">
-        <v>0.002591931506373568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01033932590808564</v>
+      </c>
+      <c r="E41">
+        <v>-0.01176977959565124</v>
+      </c>
+      <c r="F41">
+        <v>-0.00688183445000063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02295287636517086</v>
+        <v>0.0407412551042312</v>
       </c>
       <c r="C43">
-        <v>-0.007395224155560534</v>
+        <v>0.007065527532944514</v>
       </c>
       <c r="D43">
-        <v>-0.005716865783110916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01897301064985194</v>
+      </c>
+      <c r="E43">
+        <v>-0.02484490497677357</v>
+      </c>
+      <c r="F43">
+        <v>-0.01406052229444293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1036245997679026</v>
+        <v>0.07934562289332789</v>
       </c>
       <c r="C44">
-        <v>-0.0123003005089078</v>
+        <v>0.01905545095044546</v>
       </c>
       <c r="D44">
-        <v>-0.06296040007092735</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09793973955496588</v>
+      </c>
+      <c r="E44">
+        <v>-0.06199256898208401</v>
+      </c>
+      <c r="F44">
+        <v>0.1561630569801607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.007542286533623674</v>
+        <v>0.02332140135863137</v>
       </c>
       <c r="C46">
-        <v>-0.004338953204320282</v>
+        <v>0.003376753798104182</v>
       </c>
       <c r="D46">
-        <v>0.002509272731025663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01285736147671991</v>
+      </c>
+      <c r="E46">
+        <v>-0.02564530801619305</v>
+      </c>
+      <c r="F46">
+        <v>-0.008131930931055855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03781698021824571</v>
+        <v>0.05199291215623831</v>
       </c>
       <c r="C47">
-        <v>-0.0007942041368490709</v>
+        <v>0.003256299175922022</v>
       </c>
       <c r="D47">
-        <v>0.01321672057867051</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01413423512612056</v>
+      </c>
+      <c r="E47">
+        <v>-0.0228265806926555</v>
+      </c>
+      <c r="F47">
+        <v>-0.0325578296196886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05362920593479306</v>
+        <v>0.05025107268833255</v>
       </c>
       <c r="C48">
-        <v>0.001174836742569639</v>
+        <v>0.002107932721534673</v>
       </c>
       <c r="D48">
-        <v>-0.02852450921282601</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04999833585621061</v>
+      </c>
+      <c r="E48">
+        <v>0.005311071555845476</v>
+      </c>
+      <c r="F48">
+        <v>0.009043749000347111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2134264164663106</v>
+        <v>0.2005142118154325</v>
       </c>
       <c r="C49">
-        <v>0.008678538917827132</v>
+        <v>0.01883989780779954</v>
       </c>
       <c r="D49">
-        <v>0.003175377417805661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005406958301097819</v>
+      </c>
+      <c r="E49">
+        <v>-0.03238237505528147</v>
+      </c>
+      <c r="F49">
+        <v>0.03792983326289997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04222595437241471</v>
+        <v>0.05095909722486617</v>
       </c>
       <c r="C50">
-        <v>-0.008258031236156788</v>
+        <v>0.01096364396140776</v>
       </c>
       <c r="D50">
-        <v>-0.01008745638608134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02425867510874064</v>
+      </c>
+      <c r="E50">
+        <v>-0.02951431512173096</v>
+      </c>
+      <c r="F50">
+        <v>0.00901653609423596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0003262541582163523</v>
+        <v>-0.0002221005995538934</v>
       </c>
       <c r="C51">
-        <v>1.929225072845006e-05</v>
+        <v>-5.277226344363998e-05</v>
       </c>
       <c r="D51">
-        <v>-8.602042528278445e-06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.000101824660307944</v>
+      </c>
+      <c r="E51">
+        <v>0.0002322632089010952</v>
+      </c>
+      <c r="F51">
+        <v>0.000810748365304938</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1582310235663254</v>
+        <v>0.1472489690391243</v>
       </c>
       <c r="C52">
-        <v>0.003372105361204883</v>
+        <v>0.01683615723958706</v>
       </c>
       <c r="D52">
-        <v>-0.04364357468887655</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0427317069756892</v>
+      </c>
+      <c r="E52">
+        <v>-0.01907962633872314</v>
+      </c>
+      <c r="F52">
+        <v>0.04373309175369813</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1736801056091413</v>
+        <v>0.1713456143674307</v>
       </c>
       <c r="C53">
-        <v>0.004643680862856598</v>
+        <v>0.01958938564122739</v>
       </c>
       <c r="D53">
-        <v>-0.008723851339113841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005599740022209725</v>
+      </c>
+      <c r="E53">
+        <v>-0.02821179911786777</v>
+      </c>
+      <c r="F53">
+        <v>0.07389794637072664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02189477767508391</v>
+        <v>0.02125296948593812</v>
       </c>
       <c r="C54">
-        <v>-0.009239903541526095</v>
+        <v>0.01140168726089952</v>
       </c>
       <c r="D54">
-        <v>-0.02022129648056153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03437593493448673</v>
+      </c>
+      <c r="E54">
+        <v>-0.02132776688309408</v>
+      </c>
+      <c r="F54">
+        <v>-0.006148190265747373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1061354362582422</v>
+        <v>0.1140794051220079</v>
       </c>
       <c r="C55">
-        <v>-0.002095438048891919</v>
+        <v>0.01709690922767217</v>
       </c>
       <c r="D55">
-        <v>-0.0030538001781883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008288687594581989</v>
+      </c>
+      <c r="E55">
+        <v>-0.02393438759536221</v>
+      </c>
+      <c r="F55">
+        <v>0.04757220006076245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1774851674822821</v>
+        <v>0.1765537103989873</v>
       </c>
       <c r="C56">
-        <v>0.007384803315841528</v>
+        <v>0.01735992123217547</v>
       </c>
       <c r="D56">
-        <v>0.0125556170855327</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001189483186504635</v>
+      </c>
+      <c r="E56">
+        <v>-0.03350317562785494</v>
+      </c>
+      <c r="F56">
+        <v>0.05184942854866529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03222890321264072</v>
+        <v>0.04479242832338904</v>
       </c>
       <c r="C58">
-        <v>-0.003495030893013537</v>
+        <v>-0.0007551764729539188</v>
       </c>
       <c r="D58">
-        <v>-0.04748906695571749</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0713517064917973</v>
+      </c>
+      <c r="E58">
+        <v>-0.03038563319598072</v>
+      </c>
+      <c r="F58">
+        <v>-0.03841625247354403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1374094389544607</v>
+        <v>0.1672744216219858</v>
       </c>
       <c r="C59">
-        <v>0.006954389585703272</v>
+        <v>0.02198607396839443</v>
       </c>
       <c r="D59">
-        <v>0.2290739486083413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2167695906847124</v>
+      </c>
+      <c r="E59">
+        <v>0.04636888598908723</v>
+      </c>
+      <c r="F59">
+        <v>-0.03601101552645024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.253369995573678</v>
+        <v>0.2318988406488475</v>
       </c>
       <c r="C60">
-        <v>0.03397260557594511</v>
+        <v>-0.002388631361632768</v>
       </c>
       <c r="D60">
-        <v>-0.04940012961971862</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04200142635561805</v>
+      </c>
+      <c r="E60">
+        <v>-0.01031247955912212</v>
+      </c>
+      <c r="F60">
+        <v>-0.004593082529548709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1064363449515566</v>
+        <v>0.08047863514822423</v>
       </c>
       <c r="C61">
-        <v>-0.002788835100941155</v>
+        <v>0.01120095565517924</v>
       </c>
       <c r="D61">
-        <v>-0.08508154816356599</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1177488507436607</v>
+      </c>
+      <c r="E61">
+        <v>-0.03968800541757826</v>
+      </c>
+      <c r="F61">
+        <v>0.0119225380624563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1748723386202437</v>
+        <v>0.1696604774200821</v>
       </c>
       <c r="C62">
-        <v>0.003579355397823907</v>
+        <v>0.0205426639711082</v>
       </c>
       <c r="D62">
-        <v>0.01040171522194087</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005822833910620802</v>
+      </c>
+      <c r="E62">
+        <v>-0.03346200180932044</v>
+      </c>
+      <c r="F62">
+        <v>0.03517892432401835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04876128111550624</v>
+        <v>0.04583106581606324</v>
       </c>
       <c r="C63">
-        <v>0.0001353416676951293</v>
+        <v>0.00168432538094191</v>
       </c>
       <c r="D63">
-        <v>-0.03385660694542136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05828021347767293</v>
+      </c>
+      <c r="E63">
+        <v>-0.02252443687261383</v>
+      </c>
+      <c r="F63">
+        <v>0.00333113717987494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09965347647525298</v>
+        <v>0.1095478070362428</v>
       </c>
       <c r="C64">
-        <v>-0.003853066678651413</v>
+        <v>0.01103379283017456</v>
       </c>
       <c r="D64">
-        <v>-0.009326864484074241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04435346022038496</v>
+      </c>
+      <c r="E64">
+        <v>-0.02375562618989815</v>
+      </c>
+      <c r="F64">
+        <v>0.02473813858216616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1326676187307387</v>
+        <v>0.1495200531452974</v>
       </c>
       <c r="C65">
-        <v>-0.01613830300260656</v>
+        <v>0.03359135861663262</v>
       </c>
       <c r="D65">
-        <v>0.02453611229777115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04300770703083325</v>
+      </c>
+      <c r="E65">
+        <v>-0.005572265662435403</v>
+      </c>
+      <c r="F65">
+        <v>0.04084415887161828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1571295800946636</v>
+        <v>0.1238318060893267</v>
       </c>
       <c r="C66">
-        <v>-0.00128966445583706</v>
+        <v>0.01332512205897604</v>
       </c>
       <c r="D66">
-        <v>-0.1196548301845494</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1427760030564152</v>
+      </c>
+      <c r="E66">
+        <v>-0.06551894955572499</v>
+      </c>
+      <c r="F66">
+        <v>0.0330723701576785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.063158137217141</v>
+        <v>0.0581113882358958</v>
       </c>
       <c r="C67">
-        <v>0.002813985994044592</v>
+        <v>0.002858904705156311</v>
       </c>
       <c r="D67">
-        <v>-0.03454556505681324</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05642796757975977</v>
+      </c>
+      <c r="E67">
+        <v>-0.01659433671000366</v>
+      </c>
+      <c r="F67">
+        <v>-0.03102511719061223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.09337983186784747</v>
+        <v>0.1159741173428365</v>
       </c>
       <c r="C68">
-        <v>-0.006393783765858172</v>
+        <v>0.0325876638704703</v>
       </c>
       <c r="D68">
-        <v>0.2377315524232517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2605309834237246</v>
+      </c>
+      <c r="E68">
+        <v>0.08685113398168794</v>
+      </c>
+      <c r="F68">
+        <v>0.004216387417238013</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03347677505273468</v>
+        <v>0.03956910446246787</v>
       </c>
       <c r="C69">
-        <v>0.002284209350728593</v>
+        <v>0.001152963367463548</v>
       </c>
       <c r="D69">
-        <v>0.0004198247237518457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007960087012396295</v>
+      </c>
+      <c r="E69">
+        <v>-0.02263665734381351</v>
+      </c>
+      <c r="F69">
+        <v>0.001406792992440372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04055689909984304</v>
+        <v>0.06677420896430664</v>
       </c>
       <c r="C70">
-        <v>0.02641502439423676</v>
+        <v>-0.02753642423154288</v>
       </c>
       <c r="D70">
-        <v>0.04401244113169495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02417111024425941</v>
+      </c>
+      <c r="E70">
+        <v>0.03462065151110301</v>
+      </c>
+      <c r="F70">
+        <v>-0.1850832141842121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.108039604167151</v>
+        <v>0.1359652852257704</v>
       </c>
       <c r="C71">
-        <v>-0.008744927429150944</v>
+        <v>0.03689932055208959</v>
       </c>
       <c r="D71">
-        <v>0.2563244281245297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2724161806175018</v>
+      </c>
+      <c r="E71">
+        <v>0.09751027254140554</v>
+      </c>
+      <c r="F71">
+        <v>0.009220204978110092</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1353843611594384</v>
+        <v>0.1427910850506979</v>
       </c>
       <c r="C72">
-        <v>-0.009161819999810403</v>
+        <v>0.0268445562861324</v>
       </c>
       <c r="D72">
-        <v>0.01611155405062122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002662496509520175</v>
+      </c>
+      <c r="E72">
+        <v>-0.03686361047981663</v>
+      </c>
+      <c r="F72">
+        <v>0.03348664609839766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2059042986035468</v>
+        <v>0.2029082316684192</v>
       </c>
       <c r="C73">
-        <v>0.01336297484111143</v>
+        <v>0.01252313942251054</v>
       </c>
       <c r="D73">
-        <v>0.006890967367886655</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01774048894451499</v>
+      </c>
+      <c r="E73">
+        <v>-0.06262002767068146</v>
+      </c>
+      <c r="F73">
+        <v>0.03770104052961142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1014686926973873</v>
+        <v>0.09479420376173238</v>
       </c>
       <c r="C74">
-        <v>0.00145781389394118</v>
+        <v>0.01339858370495386</v>
       </c>
       <c r="D74">
-        <v>-0.01509622051404298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01741074882177589</v>
+      </c>
+      <c r="E74">
+        <v>-0.04450488657720804</v>
+      </c>
+      <c r="F74">
+        <v>0.05763406465599236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1346403910084985</v>
+        <v>0.1273868231622832</v>
       </c>
       <c r="C75">
-        <v>-0.01106021481740284</v>
+        <v>0.02807037620920814</v>
       </c>
       <c r="D75">
-        <v>-0.01274940155777178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03036490277396098</v>
+      </c>
+      <c r="E75">
+        <v>-0.05742354819972684</v>
+      </c>
+      <c r="F75">
+        <v>0.02212469038904956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08201716367456501</v>
+        <v>0.08737668173181609</v>
       </c>
       <c r="C77">
-        <v>-0.005614503090229825</v>
+        <v>0.00817702183633578</v>
       </c>
       <c r="D77">
-        <v>-0.09013991328620841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1115113455702982</v>
+      </c>
+      <c r="E77">
+        <v>-0.03832196191308594</v>
+      </c>
+      <c r="F77">
+        <v>0.03350858231232914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.124037184994349</v>
+        <v>0.1001497660320891</v>
       </c>
       <c r="C78">
-        <v>-0.03069246644300017</v>
+        <v>0.03927496231925852</v>
       </c>
       <c r="D78">
-        <v>-0.0648404527726425</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1145855892906917</v>
+      </c>
+      <c r="E78">
+        <v>-0.07387148284451532</v>
+      </c>
+      <c r="F78">
+        <v>0.0467454092384587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1596280976942582</v>
+        <v>0.1638759656260213</v>
       </c>
       <c r="C79">
-        <v>-0.002587331615352666</v>
+        <v>0.02287646899528765</v>
       </c>
       <c r="D79">
-        <v>0.01044569704849074</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01390826352252487</v>
+      </c>
+      <c r="E79">
+        <v>-0.04532051478762097</v>
+      </c>
+      <c r="F79">
+        <v>0.01149506832590693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08761424741823419</v>
+        <v>0.08256077369839597</v>
       </c>
       <c r="C80">
-        <v>0.009693221597246579</v>
+        <v>-0.0009168535135768964</v>
       </c>
       <c r="D80">
-        <v>-0.04398287655485571</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05641383221894013</v>
+      </c>
+      <c r="E80">
+        <v>-0.03605141372180638</v>
+      </c>
+      <c r="F80">
+        <v>-0.02224858739812442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1211526547441809</v>
+        <v>0.1199275261527692</v>
       </c>
       <c r="C81">
-        <v>-0.01637541932288288</v>
+        <v>0.0319528804604013</v>
       </c>
       <c r="D81">
-        <v>-0.02739728971677872</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01451140971854478</v>
+      </c>
+      <c r="E81">
+        <v>-0.05615748537266647</v>
+      </c>
+      <c r="F81">
+        <v>0.01820948636525381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1718088137568277</v>
+        <v>0.1660818651840376</v>
       </c>
       <c r="C82">
-        <v>-0.0009247708060716735</v>
+        <v>0.0250329339680424</v>
       </c>
       <c r="D82">
-        <v>-0.01369362917662628</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003580448704898791</v>
+      </c>
+      <c r="E82">
+        <v>-0.02621053761676514</v>
+      </c>
+      <c r="F82">
+        <v>0.08203125060815235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06162143368376468</v>
+        <v>0.0590549587737256</v>
       </c>
       <c r="C83">
-        <v>0.00105599224467884</v>
+        <v>0.002704844368191267</v>
       </c>
       <c r="D83">
-        <v>-0.03925231799311225</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05157462887271715</v>
+      </c>
+      <c r="E83">
+        <v>-0.003097304153946541</v>
+      </c>
+      <c r="F83">
+        <v>-0.03000791314500507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07131832171598146</v>
+        <v>0.05919784032938547</v>
       </c>
       <c r="C84">
-        <v>-0.00583271995037406</v>
+        <v>0.01103010375452155</v>
       </c>
       <c r="D84">
-        <v>-0.04685364480712729</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06404936757520784</v>
+      </c>
+      <c r="E84">
+        <v>-0.007207233277810535</v>
+      </c>
+      <c r="F84">
+        <v>0.005348915292185142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1353796670665356</v>
+        <v>0.1353542148184338</v>
       </c>
       <c r="C85">
-        <v>-0.01052184635010508</v>
+        <v>0.02800845843187843</v>
       </c>
       <c r="D85">
-        <v>-0.003011507745572155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009553181558321348</v>
+      </c>
+      <c r="E85">
+        <v>-0.03527772942218547</v>
+      </c>
+      <c r="F85">
+        <v>0.04767431032843444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.07824946408348327</v>
+        <v>0.09541079006938596</v>
       </c>
       <c r="C86">
-        <v>0.007116009940247687</v>
+        <v>-0.005267411825388924</v>
       </c>
       <c r="D86">
-        <v>0.07767102078783285</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03986746286760482</v>
+      </c>
+      <c r="E86">
+        <v>-0.2249378615477904</v>
+      </c>
+      <c r="F86">
+        <v>-0.9057811996066374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1258357862828472</v>
+        <v>0.0947834969857535</v>
       </c>
       <c r="C87">
-        <v>-0.009747820194625643</v>
+        <v>0.01940579619133069</v>
       </c>
       <c r="D87">
-        <v>-0.06999971537115401</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09377439976237202</v>
+      </c>
+      <c r="E87">
+        <v>0.05318602128619694</v>
+      </c>
+      <c r="F87">
+        <v>0.04807267756880991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05327676666736227</v>
+        <v>0.06058513150568108</v>
       </c>
       <c r="C88">
-        <v>-1.654982074655136e-05</v>
+        <v>0.002084354237911071</v>
       </c>
       <c r="D88">
-        <v>-0.02534249712539789</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04943617851498657</v>
+      </c>
+      <c r="E88">
+        <v>-0.02396432958360806</v>
+      </c>
+      <c r="F88">
+        <v>0.01305188458019063</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1196899252707502</v>
+        <v>0.1307572583487744</v>
       </c>
       <c r="C89">
-        <v>0.01531289337255826</v>
+        <v>0.01356818939759904</v>
       </c>
       <c r="D89">
-        <v>0.2738597641518212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2472524064705601</v>
+      </c>
+      <c r="E89">
+        <v>0.08997584429284394</v>
+      </c>
+      <c r="F89">
+        <v>-0.008039475402290691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.117410687393106</v>
+        <v>0.15083948578518</v>
       </c>
       <c r="C90">
-        <v>-0.005651752092669194</v>
+        <v>0.03353226431651923</v>
       </c>
       <c r="D90">
-        <v>0.2611605254559662</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2706586888601399</v>
+      </c>
+      <c r="E90">
+        <v>0.1130017920619252</v>
+      </c>
+      <c r="F90">
+        <v>-0.008311532450264933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1146414070960596</v>
+        <v>0.1208010927802221</v>
       </c>
       <c r="C91">
-        <v>-0.002308754995156517</v>
+        <v>0.01961244967652725</v>
       </c>
       <c r="D91">
-        <v>0.02565948461228045</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01496299172049929</v>
+      </c>
+      <c r="E91">
+        <v>-0.05523664889589935</v>
+      </c>
+      <c r="F91">
+        <v>-0.0007491629284842075</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1336002751680385</v>
+        <v>0.1482790243876684</v>
       </c>
       <c r="C92">
-        <v>0.009624464352996348</v>
+        <v>0.02458064083455754</v>
       </c>
       <c r="D92">
-        <v>0.2952804140189447</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2914735041391369</v>
+      </c>
+      <c r="E92">
+        <v>0.101365510661783</v>
+      </c>
+      <c r="F92">
+        <v>-0.01326986404664083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1210171067633952</v>
+        <v>0.1519208907002964</v>
       </c>
       <c r="C93">
-        <v>-8.95762874537051e-05</v>
+        <v>0.02885077524069468</v>
       </c>
       <c r="D93">
-        <v>0.2598480524985055</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2675695615326482</v>
+      </c>
+      <c r="E93">
+        <v>0.07936850615009933</v>
+      </c>
+      <c r="F93">
+        <v>0.002687474087289882</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1385411288493663</v>
+        <v>0.1284884687017062</v>
       </c>
       <c r="C94">
-        <v>-0.006767215793632406</v>
+        <v>0.02448554879873546</v>
       </c>
       <c r="D94">
-        <v>-0.03169481759142928</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04193397594897579</v>
+      </c>
+      <c r="E94">
+        <v>-0.05685618890034329</v>
+      </c>
+      <c r="F94">
+        <v>0.03752633196247901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1200890982034355</v>
+        <v>0.1266333456640531</v>
       </c>
       <c r="C95">
-        <v>0.004079206725137897</v>
+        <v>0.003137749003220397</v>
       </c>
       <c r="D95">
-        <v>-0.06402966538492148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09460574824043259</v>
+      </c>
+      <c r="E95">
+        <v>-0.04775767706525102</v>
+      </c>
+      <c r="F95">
+        <v>-0.006010057057512444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01702566927045283</v>
+        <v>0.1081420045827631</v>
       </c>
       <c r="C96">
-        <v>0.9945981390933285</v>
+        <v>-0.9872198833695582</v>
       </c>
       <c r="D96">
-        <v>0.01434283757675702</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05108020115372992</v>
+      </c>
+      <c r="E96">
+        <v>-0.0534359802117266</v>
+      </c>
+      <c r="F96">
+        <v>0.04188252470548493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1874730710653696</v>
+        <v>0.1939447538783439</v>
       </c>
       <c r="C97">
-        <v>0.03119901248959716</v>
+        <v>-0.006902326596046675</v>
       </c>
       <c r="D97">
-        <v>0.05819406571691231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01852878758609155</v>
+      </c>
+      <c r="E97">
+        <v>-0.02482259399492636</v>
+      </c>
+      <c r="F97">
+        <v>-0.08024919640797473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2092196932650965</v>
+        <v>0.2063374533411942</v>
       </c>
       <c r="C98">
-        <v>0.01705993752328576</v>
+        <v>0.007184984151725336</v>
       </c>
       <c r="D98">
-        <v>0.0193584936933663</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01292837820031641</v>
+      </c>
+      <c r="E98">
+        <v>0.07778061315886295</v>
+      </c>
+      <c r="F98">
+        <v>-0.09521613729201676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05590681563288117</v>
+        <v>0.05420122864325181</v>
       </c>
       <c r="C99">
-        <v>0.009501269046971326</v>
+        <v>-0.004753355170176869</v>
       </c>
       <c r="D99">
-        <v>-0.01829085351089053</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04024843575884111</v>
+      </c>
+      <c r="E99">
+        <v>-0.02249664070127079</v>
+      </c>
+      <c r="F99">
+        <v>0.001904270457345491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1507001375493795</v>
+        <v>0.126426010979302</v>
       </c>
       <c r="C100">
-        <v>0.05115977392019833</v>
+        <v>-0.05405156257489946</v>
       </c>
       <c r="D100">
-        <v>-0.5263821174111559</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3459715934627604</v>
+      </c>
+      <c r="E100">
+        <v>0.8870687712150715</v>
+      </c>
+      <c r="F100">
+        <v>-0.1548695621710193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02405567873324799</v>
+        <v>0.02836610959163625</v>
       </c>
       <c r="C101">
-        <v>-0.006996371740374074</v>
+        <v>0.008679251346887707</v>
       </c>
       <c r="D101">
-        <v>-0.01565299447670638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03053722706654585</v>
+      </c>
+      <c r="E101">
+        <v>-0.0131503102027215</v>
+      </c>
+      <c r="F101">
+        <v>-0.01511746376708442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
